--- a/biology/Botanique/Montiniaceae/Montiniaceae.xlsx
+++ b/biology/Botanique/Montiniaceae/Montiniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Montiniacées regroupe des plantes dicotylédones.
 Ce sont de petits arbres ou des arbustes à feuilles simples, des régions subtropicales à tropicales, originaires d'Afrique (sud-ouest et Afrique de l'Est) et de Madagascar.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Montinia, qui a été donné par le naturaliste Carl Peter Thunberg en hommage au botaniste et médecin suédois Lars Montin (sv) (1723-1785). Disciple de Linné, il effectua des recherches botaniques approfondies dans la province de Halland (Sud-Ouest de la Suède).
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification classique de Cronquist (1981)[1] cette famille n'existe pas.
-Dans la classification phylogénétique, c'est-à-dire la classification phylogénétique APG (1998)[2] et les suivantes, cette famille ne comprend que 4 à 5 espèces réparties en 3 genres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification classique de Cronquist (1981) cette famille n'existe pas.
+Dans la classification phylogénétique, c'est-à-dire la classification phylogénétique APG (1998) et les suivantes, cette famille ne comprend que 4 à 5 espèces réparties en 3 genres.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (7 Jul 2010)[3], NCBI  (7 Jul 2010)[4], GRIN            (7 Jul 2010)[5] et DELTA Angio           (7 Jul 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (7 Jul 2010), NCBI  (7 Jul 2010), GRIN            (7 Jul 2010) et DELTA Angio           (7 Jul 2010) :
 Grevea (de) Baill.
 Kaliphora (en) Hook. f.
 Montinia (pt) Thunb.</t>
@@ -608,16 +626,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (7 Jul 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (7 Jul 2010) :
 genre Grevea
 Grevea sp. Thulin et al. s.n.
 genre Kaliphora
 Kaliphora madagascariensis
 genre Montinia
 Montinia caryophyllacea
-Selon GRIN            (7 Jul 2010)[5] :
+Selon GRIN            (7 Jul 2010) :
 genre Grevea Baill.
 espèce inconnue
 genre Kaliphora Hook. f.
